--- a/2024_spring_midterm_all_list.xlsx
+++ b/2024_spring_midterm_all_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\halic-exam-genius\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0BE55-370F-4604-A3C5-9EB01BC2E50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8214D06-16FE-4C83-A6AD-AB3B29FF69AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="5505" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14617" uniqueCount="3517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14618" uniqueCount="3517">
   <si>
     <t>SINAV GÜNÜ</t>
   </si>
@@ -10981,8 +10981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1314" workbookViewId="0">
-      <selection activeCell="H1319" sqref="H1319"/>
+    <sheetView tabSelected="1" topLeftCell="A1308" workbookViewId="0">
+      <selection activeCell="B1319" sqref="B1319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -57121,8 +57121,8 @@
       <c r="A1319" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B1319" s="7">
-        <v>0.41666666666666669</v>
+      <c r="B1319" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C1319" s="5" t="s">
         <v>64</v>
@@ -57508,15 +57508,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x0101009C0D9024A30F1645A09C851DFF55244D" ma:contentTypeVersion="1" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="6e6a338ef5c93593daee79feebd7baeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4fe289ee47d198ddf544cd0dfca7c29" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -57648,6 +57639,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -57658,14 +57658,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5FEB03-F200-476E-BF62-5C028ECEC1C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B941B58-3B82-4486-9F67-7E33AED967AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57683,6 +57675,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5FEB03-F200-476E-BF62-5C028ECEC1C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FC93C-9517-43A0-A525-ABAB0F7E09CE}">
   <ds:schemaRefs>
